--- a/JAGUARAO.xlsx
+++ b/JAGUARAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E841DC1-7000-40F0-A361-F87AA3BFD37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC43CC64-B2CC-4692-93EF-58202A427C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1059,7 +1046,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1119,36 +1106,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,14 +1150,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1243,7 +1201,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{000D9C99-CCDB-49FB-A4D2-8D021257FDA8}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{C34A8074-A4E2-4BBC-BFFB-2D03FC8E109B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1273,10 +1231,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35B3A8E0-BFC7-42A2-B0FD-37A635B12339}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3208EF1D-7E58-44F5-A49E-A3C298E32496}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1314,7 +1272,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C46FB1F5-0086-4E2F-88C3-4F88FD4DE41D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63A2FDC-0557-42ED-B5D1-6A8063AEE0AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,7 +1335,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB21723-0710-45F6-9D07-E370A430BC34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07198F1-B2E3-49EC-82AF-CB7B870C2B19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1396,7 +1354,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D41D5A0-8608-E16D-7DF0-67D459E9E1B6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBDF965-1B80-D308-68F5-9A605C8150D8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1445,7 +1403,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D3185C3-BB24-B8EE-C9F7-3A61494336FD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94207282-3885-3E81-7A79-D4573ADC5985}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1464,7 +1422,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E551CC62-91CF-27D9-D078-4F70A8B35BC5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78A971E-64A8-801F-4DEB-FD4E51B30D14}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1495,7 +1453,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E406EFB-810A-C8AD-80B4-0A01F373AD9B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34A585B-6D85-CB55-4B59-322835472706}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1526,7 +1484,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD0E5F43-534F-7CF6-5BB9-76DA5D2356EE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EDB223-2B57-7F82-55C0-07CDE5EA2FF1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1569,7 +1527,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC45A7D-2BF0-43C0-87F0-32CCC060E559}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC55711-C277-4DB6-94E4-E8658311B86B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1607,7 +1565,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07662917-E6F8-4A44-92F7-7DABD75822FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C78829-17AC-4435-ADFE-84DB320580E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1650,7 +1608,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEEA8264-68CE-4297-B3C3-2D57292AAD50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D487249-FCDC-4BD6-84F7-A7A6D92EFF42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,7 +1921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E6878A-BFA3-46F8-BB63-45E51696074A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F835F2F2-C646-4C8F-B8A9-CE724A27DD73}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1975,98 +1933,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="38"/>
-    <col min="6" max="6" width="2" style="38" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="38" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="38"/>
+    <col min="1" max="5" width="12.5703125" style="35"/>
+    <col min="6" max="6" width="2" style="35" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="37"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="37"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="37"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="37"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="37"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="37"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="37"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="37"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="37"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="37"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="37"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="37"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="37"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="37"/>
+      <c r="F14" s="34"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="37"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="37"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="37"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="37"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="37"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="37"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="37"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="37"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="37"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="37"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="37"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="37"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="37"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="37"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="37"/>
+      <c r="F29" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5302,19 +5260,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5337,46 +5295,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5401,54 +5359,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="21" t="s">
         <v>291</v>
       </c>
     </row>
@@ -5459,43 +5418,43 @@
       <c r="B2" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="24">
         <v>45261</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="25">
         <v>2920</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="26">
         <v>3978</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="26">
         <v>553</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="27" t="s">
         <v>294</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="27" t="s">
         <v>294</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="28" t="s">
         <v>296</v>
       </c>
     </row>
@@ -5526,25 +5485,24 @@
       <c r="B1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="E1" s="33">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="30">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="33">
         <v>90</v>
       </c>
-      <c r="F1" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="36">
-        <v>90</v>
-      </c>
-      <c r="C2" s="34">
+      <c r="C2" s="31">
         <v>5.9515937045364368E-3</v>
       </c>
     </row>

--- a/JAGUARAO.xlsx
+++ b/JAGUARAO.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC43CC64-B2CC-4692-93EF-58202A427C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6D07A2C-D9A7-4DF7-B97C-31C9DB80002E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="DGC" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="307">
   <si>
     <t>COMARCA</t>
   </si>
@@ -926,6 +927,27 @@
   </si>
   <si>
     <t>JAGUARÃO</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>MOT-Limpeza</t>
+  </si>
+  <si>
+    <t>Demora nos Atestes MOT</t>
+  </si>
+  <si>
+    <t>MOT-VIG</t>
+  </si>
+  <si>
+    <t>MAOBRAS/MATIC</t>
+  </si>
+  <si>
+    <t>Atraso no ateste.</t>
   </si>
 </sst>
 </file>
@@ -935,7 +957,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="&quot; &quot;mmmm&quot; / &quot;yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -988,6 +1010,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1002,7 +1037,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1037,6 +1072,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4C7C3"/>
         <bgColor rgb="FFF4C7C3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1109,9 +1150,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,12 +1237,16 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{C34A8074-A4E2-4BBC-BFFB-2D03FC8E109B}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{243D0315-E481-48F8-920A-761B55F60493}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1231,10 +1276,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3208EF1D-7E58-44F5-A49E-A3C298E32496}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D261DD92-8E01-4C2D-8DC5-D2C34AA08199}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1272,7 +1317,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63A2FDC-0557-42ED-B5D1-6A8063AEE0AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6016E22-62C0-4FC3-A673-ACDF1FA4F17D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1380,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07198F1-B2E3-49EC-82AF-CB7B870C2B19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5DCFFF0-4642-4EAB-BEEA-9206825EBBEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1399,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBDF965-1B80-D308-68F5-9A605C8150D8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB31B893-9B06-7A32-1ED8-DC9BABCE4A86}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1403,7 +1448,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94207282-3885-3E81-7A79-D4573ADC5985}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29706AB0-8A5E-F3C3-43F1-22907311222D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1422,7 +1467,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78A971E-64A8-801F-4DEB-FD4E51B30D14}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A571FB51-DCB4-A8D0-35E3-1A557D114FA3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1453,7 +1498,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34A585B-6D85-CB55-4B59-322835472706}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2215254-69E2-CD8E-9371-05A060FA91E3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1484,7 +1529,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7EDB223-2B57-7F82-55C0-07CDE5EA2FF1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2A2F0C-D9A9-65AE-2854-56CFC2C26E53}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1527,7 +1572,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC55711-C277-4DB6-94E4-E8658311B86B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C34789D-C9C0-4EE7-B86A-CC89A98FC626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1610,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C78829-17AC-4435-ADFE-84DB320580E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58011F20-B56C-4DA2-B39D-C0772192BAAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1653,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D487249-FCDC-4BD6-84F7-A7A6D92EFF42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71735C63-C722-4801-B1BB-92ECF7DAF365}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,7 +1966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F835F2F2-C646-4C8F-B8A9-CE724A27DD73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362659B9-22C0-4E35-A02A-B9BFD2818727}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1933,98 +1978,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="35"/>
-    <col min="6" max="6" width="2" style="35" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="35"/>
+    <col min="1" max="5" width="12.5703125" style="37"/>
+    <col min="6" max="6" width="2" style="37" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="34"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="34"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="34"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="34"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="34"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="34"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="34"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="34"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="34"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="34"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="34"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="34"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="34"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="34"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="34"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="34"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="34"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="34"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="34"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="34"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="34"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="34"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="34"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="34"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="34"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="34"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="34"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="34"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="34"/>
+      <c r="F29" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5509,4 +5554,66 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/JAGUARAO.xlsx
+++ b/JAGUARAO.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6D07A2C-D9A7-4DF7-B97C-31C9DB80002E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7218BB9D-8CE3-42D4-9013-A0984C2A9AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="8" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="7" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
-    <sheet name="DGC" sheetId="7" r:id="rId8"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
+    <sheet name="DGC" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="304">
   <si>
     <t>COMARCA</t>
   </si>
@@ -918,15 +917,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>JAGUARÃO</t>
   </si>
   <si>
     <t>TEMÁTICA</t>
@@ -1152,7 +1142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1222,21 +1212,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1246,7 +1221,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{243D0315-E481-48F8-920A-761B55F60493}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{3A021B0D-D860-43CF-AFB6-338FFBC0FABA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1276,10 +1251,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D261DD92-8E01-4C2D-8DC5-D2C34AA08199}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2480E525-93B3-4E93-84DA-0D79103B2474}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1317,7 +1292,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6016E22-62C0-4FC3-A673-ACDF1FA4F17D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BB7E52C-DDE1-41A6-A0D0-F9BE71BCEB1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,7 +1355,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5DCFFF0-4642-4EAB-BEEA-9206825EBBEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BDF6FA-333C-4719-853B-C5BE5363DE55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1374,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB31B893-9B06-7A32-1ED8-DC9BABCE4A86}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B064568-6780-A684-4CF3-45A4F1ADA2AD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1448,7 +1423,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29706AB0-8A5E-F3C3-43F1-22907311222D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21ABF51E-AA7D-46E8-D609-B9842ADEC39E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1467,7 +1442,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A571FB51-DCB4-A8D0-35E3-1A557D114FA3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1C1B88-56F3-C8F3-6F92-051E2A6A21F7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1498,7 +1473,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2215254-69E2-CD8E-9371-05A060FA91E3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CAB23C-CEAC-9EF9-33E6-2E1CDBA519F6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1529,7 +1504,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2A2F0C-D9A9-65AE-2854-56CFC2C26E53}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E995CA84-3484-B581-CF1E-C58D5EFA1787}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1572,7 +1547,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C34789D-C9C0-4EE7-B86A-CC89A98FC626}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D4E82C8-0B9C-460F-A376-8B4D945696D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1585,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58011F20-B56C-4DA2-B39D-C0772192BAAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB18A0F-3FF3-40D9-AE02-992C3EF078FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1653,7 +1628,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71735C63-C722-4801-B1BB-92ECF7DAF365}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0038C251-D54C-42D9-9575-E640416B78C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,7 +1941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362659B9-22C0-4E35-A02A-B9BFD2818727}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65391D3D-E3FE-414C-9C4C-28DAB0CE2488}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1978,98 +1953,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="32"/>
+    <col min="6" max="6" width="2" style="32" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="32" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5510,54 +5485,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="E1" s="30">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="B2" s="33">
-        <v>90</v>
-      </c>
-      <c r="C2" s="31">
-        <v>5.9515937045364368E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5570,47 +5497,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="C1" s="34" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="C3" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B4" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C4" s="30" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/JAGUARAO.xlsx
+++ b/JAGUARAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7218BB9D-8CE3-42D4-9013-A0984C2A9AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52E5948A-FA16-41ED-BFC1-E5B4A8E870F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1221,7 +1221,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{3A021B0D-D860-43CF-AFB6-338FFBC0FABA}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{47EA36D1-DAB3-4490-A9C7-FCDE6A594CB4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1251,10 +1251,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2480E525-93B3-4E93-84DA-0D79103B2474}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CEA85C0-936C-4C89-9640-92056B955B04}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,7 +1292,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BB7E52C-DDE1-41A6-A0D0-F9BE71BCEB1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F4C14F4-D605-4595-86D0-4430D42A0C43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1355,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BDF6FA-333C-4719-853B-C5BE5363DE55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB44091-D67C-4AB9-8297-B3BD6D445B38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1374,7 +1374,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B064568-6780-A684-4CF3-45A4F1ADA2AD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC1DCD9-C253-CF25-A65D-B899240E9197}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1423,7 +1423,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21ABF51E-AA7D-46E8-D609-B9842ADEC39E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B7A953-5A1F-EFB4-9F92-DCBE5287A992}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1442,7 +1442,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1C1B88-56F3-C8F3-6F92-051E2A6A21F7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{838D0D25-6BF8-4A2D-9D5D-7C5BE047F882}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1473,7 +1473,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CAB23C-CEAC-9EF9-33E6-2E1CDBA519F6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{911AEC19-61BE-44E4-5635-29728D710360}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1504,7 +1504,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E995CA84-3484-B581-CF1E-C58D5EFA1787}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{583B37C0-C219-505D-F605-906CC9C358F9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1547,7 +1547,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D4E82C8-0B9C-460F-A376-8B4D945696D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E1ED48-338F-4383-9970-C2CE6192C2E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1585,7 +1585,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB18A0F-3FF3-40D9-AE02-992C3EF078FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42648ABB-97CD-4DAE-8218-F1AD8F7E121A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,50 +1610,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0038C251-D54C-42D9-9575-E640416B78C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1941,7 +1897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65391D3D-E3FE-414C-9C4C-28DAB0CE2488}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E0A53E-08FB-4A8C-A886-6C6387C51A9A}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
